--- a/data/trans_orig/P16A11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Edad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2517,7 +2517,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4480,7 +4480,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6443,7 +6443,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4364</v>
+        <v>4479</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00157950393745714</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008833471839739178</v>
+        <v>0.009065746130859328</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4371</v>
+        <v>4547</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0008115786199423048</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.004545611146165311</v>
+        <v>0.004729169573463984</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>493284</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>489700</v>
+        <v>489585</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>494064</v>
@@ -816,7 +816,7 @@
         <v>0.9984204960625429</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9911665281602614</v>
+        <v>0.9909342538691412</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>960773</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>957182</v>
+        <v>957006</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>961553</v>
@@ -850,7 +850,7 @@
         <v>0.9991884213800577</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9954543888538341</v>
+        <v>0.9952708304265356</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6009</v>
+        <v>6408</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002401007256442981</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008170704019445623</v>
+        <v>0.008712796185448068</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -966,19 +966,19 @@
         <v>4728</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1865</v>
+        <v>1749</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10370</v>
+        <v>10427</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007558729816595082</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002982101701984063</v>
+        <v>0.002796656797442697</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01657896915673513</v>
+        <v>0.01667010116089382</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -987,19 +987,19 @@
         <v>6494</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2751</v>
+        <v>2766</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12860</v>
+        <v>13161</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004771444605771465</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002021094119986451</v>
+        <v>0.002032522806312458</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.00944898184931375</v>
+        <v>0.009669904070856829</v>
       </c>
     </row>
     <row r="8">
@@ -1016,7 +1016,7 @@
         <v>733723</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>729480</v>
+        <v>729081</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>735489</v>
@@ -1025,7 +1025,7 @@
         <v>0.997598992743557</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9918292959805546</v>
+        <v>0.9912872038145506</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1037,19 +1037,19 @@
         <v>620766</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>615124</v>
+        <v>615067</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>623629</v>
+        <v>623745</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9924412701834049</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9834210308432648</v>
+        <v>0.9833298988391062</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9970178982980159</v>
+        <v>0.9972033432025573</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1287</v>
@@ -1058,19 +1058,19 @@
         <v>1354488</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1348122</v>
+        <v>1347821</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1358231</v>
+        <v>1358216</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9952285553942285</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9905510181506862</v>
+        <v>0.9903300959291432</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9979789058800136</v>
+        <v>0.9979674771936876</v>
       </c>
     </row>
     <row r="9">
@@ -1162,19 +1162,19 @@
         <v>16655</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9990</v>
+        <v>10246</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25372</v>
+        <v>25099</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02612016621620926</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0156669221238634</v>
+        <v>0.01606831074487548</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03978973355167924</v>
+        <v>0.03936251304355316</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -1183,19 +1183,19 @@
         <v>28780</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18873</v>
+        <v>19271</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40085</v>
+        <v>39970</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04172509321008314</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02736173453335046</v>
+        <v>0.02793989336047698</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05811648377554936</v>
+        <v>0.05794937465455868</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -1204,19 +1204,19 @@
         <v>45435</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33950</v>
+        <v>34402</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59934</v>
+        <v>60545</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0342288448953498</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02557657201863457</v>
+        <v>0.02591684837741568</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04515154755854816</v>
+        <v>0.04561166848279203</v>
       </c>
     </row>
     <row r="11">
@@ -1233,19 +1233,19 @@
         <v>620994</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>612277</v>
+        <v>612550</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>627659</v>
+        <v>627403</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9738798337837907</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9602102664483202</v>
+        <v>0.9606374869564467</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9843330778761364</v>
+        <v>0.9839316892551242</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>630</v>
@@ -1254,19 +1254,19 @@
         <v>660964</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>649659</v>
+        <v>649774</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>670871</v>
+        <v>670473</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9582749067899169</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9418835162244507</v>
+        <v>0.9420506253454412</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9726382654666496</v>
+        <v>0.9720601066395229</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1225</v>
@@ -1275,19 +1275,19 @@
         <v>1281959</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1267460</v>
+        <v>1266849</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1293444</v>
+        <v>1292992</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9657711551046502</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9548484524414518</v>
+        <v>0.9543883315172079</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9744234279813653</v>
+        <v>0.9740831516225843</v>
       </c>
     </row>
     <row r="12">
@@ -1379,19 +1379,19 @@
         <v>66073</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52910</v>
+        <v>51333</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83170</v>
+        <v>82932</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1272729242633658</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1019166238274078</v>
+        <v>0.09887983327257492</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1602058220159211</v>
+        <v>0.1597473656653129</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -1400,19 +1400,19 @@
         <v>54706</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41746</v>
+        <v>41401</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70110</v>
+        <v>68610</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1060928993781753</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08095903776355193</v>
+        <v>0.08028962906319605</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.135965643069461</v>
+        <v>0.1330566249925861</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -1421,19 +1421,19 @@
         <v>120779</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>101653</v>
+        <v>102693</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>143849</v>
+        <v>144547</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.116718782468112</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09823509473910311</v>
+        <v>0.09924040394219009</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1390129981422409</v>
+        <v>0.1396878943050293</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>453074</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>435977</v>
+        <v>436215</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>466237</v>
+        <v>467814</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8727270757366341</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8397941779840788</v>
+        <v>0.8402526343346871</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8980833761725922</v>
+        <v>0.9011201667274252</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>448</v>
@@ -1471,19 +1471,19 @@
         <v>460936</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>445532</v>
+        <v>447032</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>473896</v>
+        <v>474241</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8939071006218248</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8640343569305391</v>
+        <v>0.866943375007414</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9190409622364482</v>
+        <v>0.919710370936804</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>868</v>
@@ -1492,19 +1492,19 @@
         <v>914010</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>890940</v>
+        <v>890242</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>933136</v>
+        <v>932096</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.883281217531888</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8609870018577589</v>
+        <v>0.8603121056949707</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9017649052608967</v>
+        <v>0.9007595960578099</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>117256</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>101032</v>
+        <v>98978</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>135914</v>
+        <v>137544</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3032147959561736</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2612610432586239</v>
+        <v>0.2559486528102889</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3514613934969457</v>
+        <v>0.3556761094235726</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>128</v>
@@ -1617,19 +1617,19 @@
         <v>130658</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>113242</v>
+        <v>111397</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>152894</v>
+        <v>149996</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.323422803652277</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.280311036495444</v>
+        <v>0.2757438098742396</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.378463329594385</v>
+        <v>0.3712906487829782</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>245</v>
@@ -1638,19 +1638,19 @@
         <v>247914</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>220556</v>
+        <v>222431</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>273819</v>
+        <v>275253</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3135395625240899</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2789394894601595</v>
+        <v>0.2813104483299531</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3463013638151974</v>
+        <v>0.348114976587705</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>269454</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>250796</v>
+        <v>249166</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>285678</v>
+        <v>287732</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6967852040438264</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6485386065030543</v>
+        <v>0.6443238905764274</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7387389567413761</v>
+        <v>0.744051347189711</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>268</v>
@@ -1688,19 +1688,19 @@
         <v>273328</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>251092</v>
+        <v>253990</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>290744</v>
+        <v>292589</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.676577196347723</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.621536670405615</v>
+        <v>0.6287093512170218</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.719688963504556</v>
+        <v>0.7242561901257604</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>543</v>
@@ -1709,19 +1709,19 @@
         <v>542782</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>516877</v>
+        <v>515443</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>570140</v>
+        <v>568265</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6864604374759101</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6536986361848025</v>
+        <v>0.651885023412295</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7210605105398405</v>
+        <v>0.718689551670047</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>112584</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>96128</v>
+        <v>96891</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>128439</v>
+        <v>129311</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3847947190784428</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3285506691107324</v>
+        <v>0.3311578518010135</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4389825459149599</v>
+        <v>0.4419635055056703</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>170</v>
@@ -1834,19 +1834,19 @@
         <v>157063</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>139327</v>
+        <v>139289</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>175018</v>
+        <v>175065</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4579991395721935</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.406278253950744</v>
+        <v>0.406167971394992</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5103553873486476</v>
+        <v>0.5104932251636971</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>288</v>
@@ -1855,19 +1855,19 @@
         <v>269648</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>245624</v>
+        <v>246958</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>294868</v>
+        <v>293703</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4242968640970704</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3864952346171893</v>
+        <v>0.3885939661615123</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4639811707470541</v>
+        <v>0.4621480952806417</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>179999</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>164144</v>
+        <v>163272</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>196455</v>
+        <v>195692</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6152052809215571</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5610174540850402</v>
+        <v>0.5580364944943303</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6714493308892676</v>
+        <v>0.6688421481989865</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>201</v>
@@ -1905,19 +1905,19 @@
         <v>185871</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>167916</v>
+        <v>167869</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>203607</v>
+        <v>203645</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5420008604278065</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4896446126513523</v>
+        <v>0.4895067748363029</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5937217460492559</v>
+        <v>0.5938320286050081</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>386</v>
@@ -1926,19 +1926,19 @@
         <v>365869</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>340649</v>
+        <v>341814</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>389893</v>
+        <v>388559</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5757031359029295</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5360188292529459</v>
+        <v>0.5378519047193583</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6135047653828106</v>
+        <v>0.6114060338384877</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>98446</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>83608</v>
+        <v>83730</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>112223</v>
+        <v>112724</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4690535562408927</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3983559873781584</v>
+        <v>0.3989345845011946</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5346918734131931</v>
+        <v>0.5370822420674251</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>163</v>
@@ -2051,19 +2051,19 @@
         <v>187449</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>167950</v>
+        <v>168114</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>206570</v>
+        <v>205387</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5613778093670573</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5029824202270957</v>
+        <v>0.5034751711486374</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6186421375680926</v>
+        <v>0.6151003917075635</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>264</v>
@@ -2072,19 +2072,19 @@
         <v>285895</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>264020</v>
+        <v>262302</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>310049</v>
+        <v>309575</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5257440973760028</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4855177877155906</v>
+        <v>0.4823575225997249</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5701627753525019</v>
+        <v>0.5692895288117431</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>111437</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>97660</v>
+        <v>97159</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>126275</v>
+        <v>126153</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5309464437591073</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4653081265868069</v>
+        <v>0.4629177579325749</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6016440126218419</v>
+        <v>0.6010654154988055</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>127</v>
@@ -2122,19 +2122,19 @@
         <v>146459</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>127338</v>
+        <v>128521</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>165958</v>
+        <v>165794</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4386221906329428</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3813578624319075</v>
+        <v>0.3848996082924363</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4970175797729043</v>
+        <v>0.4965248288513627</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>246</v>
@@ -2143,19 +2143,19 @@
         <v>257896</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>233742</v>
+        <v>234216</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>279771</v>
+        <v>281489</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4742559026239972</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4298372246474981</v>
+        <v>0.4307104711882569</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.514482212284409</v>
+        <v>0.5176424774002751</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>413562</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>377088</v>
+        <v>379797</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>450887</v>
+        <v>451768</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1262582732633914</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1151228848342048</v>
+        <v>0.1159498670397022</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1376532844291844</v>
+        <v>0.1379222289862497</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>548</v>
@@ -2268,19 +2268,19 @@
         <v>563384</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>523897</v>
+        <v>522641</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>608229</v>
+        <v>603517</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1667212087860317</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1550358272172512</v>
+        <v>0.1546642785561884</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.17999211453439</v>
+        <v>0.1785978354055831</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>968</v>
@@ -2289,19 +2289,19 @@
         <v>976946</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>916787</v>
+        <v>918769</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1038120</v>
+        <v>1039995</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.146804921696733</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1377649402942889</v>
+        <v>0.1380627711976847</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1559975467166324</v>
+        <v>0.1562792237040837</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>2861963</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2824638</v>
+        <v>2823757</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2898437</v>
+        <v>2895728</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8737417267366087</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8623467155708157</v>
+        <v>0.8620777710137504</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8848771151657956</v>
+        <v>0.884050132960298</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2749</v>
@@ -2339,19 +2339,19 @@
         <v>2815813</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2770968</v>
+        <v>2775680</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2855300</v>
+        <v>2856556</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8332787912139683</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8200078854656099</v>
+        <v>0.8214021645944166</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8449641727827484</v>
+        <v>0.8453357214438114</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5542</v>
@@ -2360,19 +2360,19 @@
         <v>5677776</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5616602</v>
+        <v>5614727</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5737935</v>
+        <v>5735953</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.853195078303267</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.844002453283368</v>
+        <v>0.8437207762959157</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8622350597057111</v>
+        <v>0.8619372288023152</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5714</v>
+        <v>5301</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002118703446042427</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01261145254994298</v>
+        <v>0.01169905621406799</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4833</v>
+        <v>4925</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001087882263254937</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005477179517644067</v>
+        <v>0.005581502231019459</v>
       </c>
     </row>
     <row r="5">
@@ -2770,7 +2770,7 @@
         <v>452145</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>447391</v>
+        <v>447804</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>453105</v>
@@ -2779,7 +2779,7 @@
         <v>0.9978812965539575</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.987388547450057</v>
+        <v>0.9883009437859315</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2804,7 +2804,7 @@
         <v>881485</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>877612</v>
+        <v>877520</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>882445</v>
@@ -2813,7 +2813,7 @@
         <v>0.998912117736745</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9945228204823561</v>
+        <v>0.9944184977689819</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2908,19 +2908,19 @@
         <v>6835</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2892</v>
+        <v>2938</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15829</v>
+        <v>15532</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009960180509244259</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004214458001016288</v>
+        <v>0.004281502822624158</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02306608065982877</v>
+        <v>0.02263422912074662</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -2929,19 +2929,19 @@
         <v>8515</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3808</v>
+        <v>3644</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18385</v>
+        <v>16410</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01397625999041986</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006250802572750953</v>
+        <v>0.005982026684046403</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03017755429275873</v>
+        <v>0.02693708646838832</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -2950,19 +2950,19 @@
         <v>15350</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8593</v>
+        <v>7966</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25557</v>
+        <v>26761</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01184882775860952</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006633563272108381</v>
+        <v>0.006149432802262125</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01972798087384286</v>
+        <v>0.02065784034091526</v>
       </c>
     </row>
     <row r="8">
@@ -2979,19 +2979,19 @@
         <v>679403</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>670409</v>
+        <v>670706</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>683346</v>
+        <v>683300</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9900398194907557</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9769339193401722</v>
+        <v>0.9773657708792534</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9957855419989837</v>
+        <v>0.9957184971773758</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>563</v>
@@ -3000,19 +3000,19 @@
         <v>600699</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>590829</v>
+        <v>592804</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>605406</v>
+        <v>605570</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9860237400095802</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9698224457072415</v>
+        <v>0.973062913531612</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9937491974272491</v>
+        <v>0.9940179733159535</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1223</v>
@@ -3021,19 +3021,19 @@
         <v>1280101</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1269894</v>
+        <v>1268690</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1286858</v>
+        <v>1287485</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9881511722413905</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.980272019126157</v>
+        <v>0.9793421596590847</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9933664367278916</v>
+        <v>0.9938505671977378</v>
       </c>
     </row>
     <row r="9">
@@ -3125,19 +3125,19 @@
         <v>31364</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21454</v>
+        <v>20658</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45305</v>
+        <v>44618</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04612009549354075</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03154677541864069</v>
+        <v>0.03037724491038258</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06661957116345178</v>
+        <v>0.06560879414308135</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -3146,19 +3146,19 @@
         <v>22579</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14728</v>
+        <v>14053</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33280</v>
+        <v>33978</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03198431108554049</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02086244164612873</v>
+        <v>0.01990640974211269</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04714284617098492</v>
+        <v>0.0481319154024307</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -3167,19 +3167,19 @@
         <v>53943</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41448</v>
+        <v>41925</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71632</v>
+        <v>71383</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03892021945242772</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02990475495469336</v>
+        <v>0.03024889989602485</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0516832410146199</v>
+        <v>0.05150306926578666</v>
       </c>
     </row>
     <row r="11">
@@ -3196,19 +3196,19 @@
         <v>648690</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>634749</v>
+        <v>635436</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>658600</v>
+        <v>659396</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9538799045064592</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9333804288365479</v>
+        <v>0.9343912058569191</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9684532245813591</v>
+        <v>0.9696227550896174</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>641</v>
@@ -3217,19 +3217,19 @@
         <v>683356</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>672655</v>
+        <v>671957</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>691207</v>
+        <v>691882</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9680156889144595</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9528571538290151</v>
+        <v>0.9518680845975694</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9791375583538714</v>
+        <v>0.9800935902578874</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1261</v>
@@ -3238,19 +3238,19 @@
         <v>1332046</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1314357</v>
+        <v>1314606</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1344541</v>
+        <v>1344064</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9610797805475723</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9483167589853801</v>
+        <v>0.9484969307342135</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9700952450453068</v>
+        <v>0.9697511001039752</v>
       </c>
     </row>
     <row r="12">
@@ -3342,19 +3342,19 @@
         <v>72529</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57511</v>
+        <v>55057</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90645</v>
+        <v>89340</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1180069387890053</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09357187886024265</v>
+        <v>0.08958001885251074</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1474821433968775</v>
+        <v>0.1453588020823833</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>74</v>
@@ -3363,19 +3363,19 @@
         <v>81078</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65572</v>
+        <v>64430</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>99809</v>
+        <v>99334</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1320333104100843</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1067828944924176</v>
+        <v>0.1049219437248178</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1625363002579612</v>
+        <v>0.1617622762721025</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>140</v>
@@ -3384,19 +3384,19 @@
         <v>153607</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>129910</v>
+        <v>129214</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>177743</v>
+        <v>178879</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1250170188179187</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1057306047005111</v>
+        <v>0.1051637492393229</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1446605910363871</v>
+        <v>0.1455849975910859</v>
       </c>
     </row>
     <row r="14">
@@ -3413,19 +3413,19 @@
         <v>542088</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>523972</v>
+        <v>525277</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>557106</v>
+        <v>559560</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8819930612109947</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8525178566031224</v>
+        <v>0.8546411979176167</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9064281211397573</v>
+        <v>0.9104199811474893</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>463</v>
@@ -3434,19 +3434,19 @@
         <v>532994</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>514263</v>
+        <v>514738</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>548500</v>
+        <v>549642</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8679666895899157</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8374636997420388</v>
+        <v>0.8382377237278974</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8932171055075824</v>
+        <v>0.8950780562751821</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>945</v>
@@ -3455,19 +3455,19 @@
         <v>1075082</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1050946</v>
+        <v>1049810</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1098779</v>
+        <v>1099475</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8749829811820813</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8553394089636129</v>
+        <v>0.8544150024089142</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.894269395299489</v>
+        <v>0.8948362507606773</v>
       </c>
     </row>
     <row r="15">
@@ -3559,19 +3559,19 @@
         <v>151348</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>132306</v>
+        <v>130210</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>172034</v>
+        <v>172299</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3533330093541879</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3088783023829112</v>
+        <v>0.3039851090350993</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4016259790619281</v>
+        <v>0.4022450403244148</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>163</v>
@@ -3580,19 +3580,19 @@
         <v>177934</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>158173</v>
+        <v>156130</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>200462</v>
+        <v>200348</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3983520711501435</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.354111886786251</v>
+        <v>0.3495373909420704</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.448786415873223</v>
+        <v>0.4485329026131346</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>300</v>
@@ -3601,19 +3601,19 @@
         <v>329282</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>298756</v>
+        <v>298294</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>359718</v>
+        <v>359306</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3763140963304079</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3414282530227502</v>
+        <v>0.3409007002616355</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4110978038870531</v>
+        <v>0.410627085210178</v>
       </c>
     </row>
     <row r="17">
@@ -3630,19 +3630,19 @@
         <v>276996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>256310</v>
+        <v>256045</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>296038</v>
+        <v>298134</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.646666990645812</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5983740209380719</v>
+        <v>0.597754959675585</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6911216976170887</v>
+        <v>0.6960148909649005</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>242</v>
@@ -3651,19 +3651,19 @@
         <v>268741</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>246213</v>
+        <v>246327</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>288502</v>
+        <v>290545</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6016479288498565</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.551213584126779</v>
+        <v>0.5514670973868655</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6458881132137492</v>
+        <v>0.6504626090579296</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>497</v>
@@ -3672,19 +3672,19 @@
         <v>545736</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>515300</v>
+        <v>515712</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>576262</v>
+        <v>576724</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6236859036695921</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5889021961129469</v>
+        <v>0.5893729147898218</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6585717469772497</v>
+        <v>0.6590992997383641</v>
       </c>
     </row>
     <row r="18">
@@ -3776,19 +3776,19 @@
         <v>157590</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>138993</v>
+        <v>139772</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>176014</v>
+        <v>178316</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5087073799997972</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4486746486924378</v>
+        <v>0.4511896584888044</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5681802508575652</v>
+        <v>0.5756092307008757</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>196</v>
@@ -3797,19 +3797,19 @@
         <v>201044</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>182278</v>
+        <v>183565</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>219981</v>
+        <v>220366</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5679280420052174</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5149156853802852</v>
+        <v>0.5185507248531893</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6214209365789688</v>
+        <v>0.6225096497162559</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>341</v>
@@ -3818,19 +3818,19 @@
         <v>358635</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>332151</v>
+        <v>332639</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>384369</v>
+        <v>384473</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5402898448898834</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5003912747666242</v>
+        <v>0.5011274803720124</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5790583521230281</v>
+        <v>0.5792160579180931</v>
       </c>
     </row>
     <row r="20">
@@ -3847,19 +3847,19 @@
         <v>152196</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>133772</v>
+        <v>131470</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>170793</v>
+        <v>170014</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4912926200002028</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4318197491424347</v>
+        <v>0.4243907692991241</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5513253513075621</v>
+        <v>0.5488103415111956</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>148</v>
@@ -3868,19 +3868,19 @@
         <v>152952</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>134015</v>
+        <v>133630</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>171718</v>
+        <v>170431</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4320719579947826</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3785790634210313</v>
+        <v>0.3774903502837441</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4850843146197148</v>
+        <v>0.4814492751468104</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>285</v>
@@ -3889,19 +3889,19 @@
         <v>305147</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>279413</v>
+        <v>279309</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>331631</v>
+        <v>331143</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4597101551101165</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4209416478769721</v>
+        <v>0.4207839420819069</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4996087252333758</v>
+        <v>0.4988725196279877</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>148727</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>131153</v>
+        <v>132990</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>163936</v>
+        <v>165751</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5952643615820837</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5249260962844755</v>
+        <v>0.5322784190116299</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6561361326703226</v>
+        <v>0.6633993968775964</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>226</v>
@@ -4014,19 +4014,19 @@
         <v>250391</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>230667</v>
+        <v>230173</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>269193</v>
+        <v>268589</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6456770194622962</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5948140700354854</v>
+        <v>0.5935411506427449</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6941602185972197</v>
+        <v>0.6926048443479067</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>360</v>
@@ -4035,19 +4035,19 @@
         <v>399118</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>374203</v>
+        <v>375741</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>424664</v>
+        <v>424775</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6259237010727917</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5868499431039728</v>
+        <v>0.5892619006522749</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6659858531516072</v>
+        <v>0.6661598250334222</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>101124</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>85915</v>
+        <v>84100</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>118698</v>
+        <v>116861</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4047356384179162</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3438638673296775</v>
+        <v>0.3366006031224037</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4750739037155245</v>
+        <v>0.4677215809883701</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>123</v>
@@ -4085,19 +4085,19 @@
         <v>137405</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>118603</v>
+        <v>119207</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>157129</v>
+        <v>157623</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3543229805377038</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3058397814027801</v>
+        <v>0.3073951556520933</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4051859299645145</v>
+        <v>0.406458849357255</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>211</v>
@@ -4106,19 +4106,19 @@
         <v>238529</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>212983</v>
+        <v>212872</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>263444</v>
+        <v>261906</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3740762989272083</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3340141468483927</v>
+        <v>0.3338401749665778</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4131500568960274</v>
+        <v>0.4107380993477251</v>
       </c>
     </row>
     <row r="24">
@@ -4210,19 +4210,19 @@
         <v>569354</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>527706</v>
+        <v>514500</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>615411</v>
+        <v>611510</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1663807706519331</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.154210031930439</v>
+        <v>0.150350976944291</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1798397490374349</v>
+        <v>0.1787000417900621</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>688</v>
@@ -4231,19 +4231,19 @@
         <v>741541</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>688015</v>
+        <v>697512</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>790975</v>
+        <v>793019</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.209059701032602</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.193969569612159</v>
+        <v>0.1966468755524213</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2229966806479228</v>
+        <v>0.2235727193707665</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1206</v>
@@ -4252,19 +4252,19 @@
         <v>1310894</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1240389</v>
+        <v>1246686</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1376728</v>
+        <v>1379402</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1881030942623475</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1779861242379628</v>
+        <v>0.1788897491775781</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1975497307028977</v>
+        <v>0.1979334361481288</v>
       </c>
     </row>
     <row r="26">
@@ -4281,19 +4281,19 @@
         <v>2852640</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2806583</v>
+        <v>2810484</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2894288</v>
+        <v>2907494</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8336192293480669</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.820160250962565</v>
+        <v>0.8212999582099378</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8457899680695609</v>
+        <v>0.8496490230557089</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2600</v>
@@ -4302,19 +4302,19 @@
         <v>2805487</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2756053</v>
+        <v>2754009</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2859013</v>
+        <v>2849516</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.790940298967398</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7770033193520772</v>
+        <v>0.7764272806292336</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8060304303878411</v>
+        <v>0.8033531244475789</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5286</v>
@@ -4323,19 +4323,19 @@
         <v>5658127</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5592293</v>
+        <v>5589619</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5728632</v>
+        <v>5722335</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8118969057376525</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8024502692971023</v>
+        <v>0.8020665638518713</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8220138757620372</v>
+        <v>0.8211102508224221</v>
       </c>
     </row>
     <row r="27">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4878</v>
+        <v>4499</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002279163354758952</v>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01232560186977087</v>
+        <v>0.01136818275013063</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4500</v>
+        <v>5750</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00110644060678757</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005520357823219781</v>
+        <v>0.007053770843851621</v>
       </c>
     </row>
     <row r="5">
@@ -4746,7 +4746,7 @@
         <v>394853</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>390877</v>
+        <v>391256</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>395755</v>
@@ -4755,7 +4755,7 @@
         <v>0.997720836645241</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9876743981302295</v>
+        <v>0.9886318172498694</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4767,7 +4767,7 @@
         <v>814316</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>810718</v>
+        <v>809468</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -4776,7 +4776,7 @@
         <v>0.9988935593932124</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9944796421767802</v>
+        <v>0.9929462291561473</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -4871,19 +4871,19 @@
         <v>5633</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1996</v>
+        <v>1956</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13546</v>
+        <v>12585</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009539922917012904</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003379730285791099</v>
+        <v>0.003313243547732948</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02293963043541848</v>
+        <v>0.02131331203110346</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -4895,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6688</v>
+        <v>6604</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003363284225542201</v>
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01186844758893133</v>
+        <v>0.01171817999423905</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -4913,19 +4913,19 @@
         <v>7529</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2975</v>
+        <v>3026</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15460</v>
+        <v>15237</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006523731203710127</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002578031151053361</v>
+        <v>0.002621923796741779</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01339620420767419</v>
+        <v>0.01320340785795274</v>
       </c>
     </row>
     <row r="8">
@@ -4942,19 +4942,19 @@
         <v>584863</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>576950</v>
+        <v>577911</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>588500</v>
+        <v>588540</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9904600770829871</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9770603695645796</v>
+        <v>0.9786866879688965</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9966202697142089</v>
+        <v>0.9966867564522671</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>577</v>
@@ -4963,7 +4963,7 @@
         <v>561649</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>556856</v>
+        <v>556940</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>563544</v>
@@ -4972,7 +4972,7 @@
         <v>0.9966367157744578</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9881315524110686</v>
+        <v>0.9882818200057609</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -4984,19 +4984,19 @@
         <v>1146511</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1138580</v>
+        <v>1138803</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1151065</v>
+        <v>1151014</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9934762687962899</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9866037957923257</v>
+        <v>0.9867965921420472</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9974219688489466</v>
+        <v>0.9973780762032581</v>
       </c>
     </row>
     <row r="9">
@@ -5088,19 +5088,19 @@
         <v>21270</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12843</v>
+        <v>13088</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32657</v>
+        <v>31986</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03178896842527199</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01919477922263608</v>
+        <v>0.01956110621017849</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04880786264745833</v>
+        <v>0.04780490009143334</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -5109,19 +5109,19 @@
         <v>15256</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8721</v>
+        <v>8830</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25998</v>
+        <v>25223</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02306744717064706</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01318582236341524</v>
+        <v>0.01335076949657945</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03930841210360246</v>
+        <v>0.03813722330643895</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -5130,19 +5130,19 @@
         <v>36526</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26803</v>
+        <v>24724</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50927</v>
+        <v>50103</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02745347926534349</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02014543403305466</v>
+        <v>0.01858254536320105</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03827737644260646</v>
+        <v>0.03765754584949098</v>
       </c>
     </row>
     <row r="11">
@@ -5159,19 +5159,19 @@
         <v>647827</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>636440</v>
+        <v>637111</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>656254</v>
+        <v>656009</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.968211031574728</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9511921373525417</v>
+        <v>0.9521950999085667</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.980805220777364</v>
+        <v>0.9804388937898215</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>650</v>
@@ -5180,19 +5180,19 @@
         <v>646130</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>635388</v>
+        <v>636163</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>652665</v>
+        <v>652556</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.976932552829353</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9606915878963974</v>
+        <v>0.961862776693561</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9868141776365846</v>
+        <v>0.9866492305034206</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1268</v>
@@ -5201,19 +5201,19 @@
         <v>1293957</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1279556</v>
+        <v>1280380</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1303680</v>
+        <v>1305759</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9725465207346565</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9617226235573935</v>
+        <v>0.962342454150509</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9798545659669453</v>
+        <v>0.9814174546367985</v>
       </c>
     </row>
     <row r="12">
@@ -5305,19 +5305,19 @@
         <v>88877</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71367</v>
+        <v>71160</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109957</v>
+        <v>109482</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1375700593477894</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1104676231124437</v>
+        <v>0.1101460234799935</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1702000157707739</v>
+        <v>0.1694636090323484</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -5326,19 +5326,19 @@
         <v>61417</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45759</v>
+        <v>48158</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77642</v>
+        <v>78810</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0946219964881489</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07049820817375604</v>
+        <v>0.07419436567270986</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1196195765123922</v>
+        <v>0.1214186172127877</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>135</v>
@@ -5347,19 +5347,19 @@
         <v>150294</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>128871</v>
+        <v>125836</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>175168</v>
+        <v>174978</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1160458110534373</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09950458010135857</v>
+        <v>0.09716156067088878</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1352520288244222</v>
+        <v>0.1351047444328938</v>
       </c>
     </row>
     <row r="14">
@@ -5376,19 +5376,19 @@
         <v>557171</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>536091</v>
+        <v>536566</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>574681</v>
+        <v>574888</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8624299406522106</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8297999842292261</v>
+        <v>0.8305363909676516</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8895323768875562</v>
+        <v>0.8898539765200065</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>546</v>
@@ -5397,19 +5397,19 @@
         <v>587660</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>571435</v>
+        <v>570267</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>603318</v>
+        <v>600919</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.905378003511851</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8803804234876078</v>
+        <v>0.8785813827872123</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.929501791826244</v>
+        <v>0.9258056343272901</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1049</v>
@@ -5418,19 +5418,19 @@
         <v>1144831</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1119957</v>
+        <v>1120147</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1166254</v>
+        <v>1169289</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8839541889465626</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8647479711755779</v>
+        <v>0.8648952555671062</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9004954198986415</v>
+        <v>0.9028384393291113</v>
       </c>
     </row>
     <row r="15">
@@ -5522,19 +5522,19 @@
         <v>106585</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>89617</v>
+        <v>89973</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>125211</v>
+        <v>126877</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2230195102162524</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1875146133259433</v>
+        <v>0.188260824878931</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2619925274131386</v>
+        <v>0.2654795594422412</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>133</v>
@@ -5543,19 +5543,19 @@
         <v>150066</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>128020</v>
+        <v>129956</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>170375</v>
+        <v>172993</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.302034460629014</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2576642818716</v>
+        <v>0.2615600430663931</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3429110122180057</v>
+        <v>0.348180955295223</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>229</v>
@@ -5564,19 +5564,19 @@
         <v>256651</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>229318</v>
+        <v>229881</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>286986</v>
+        <v>285914</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2632942622471546</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2352537382303312</v>
+        <v>0.2358317656756574</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2944151813950023</v>
+        <v>0.2933155388487703</v>
       </c>
     </row>
     <row r="17">
@@ -5593,19 +5593,19 @@
         <v>371333</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>352707</v>
+        <v>351041</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>388301</v>
+        <v>387945</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7769804897837476</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7380074725868614</v>
+        <v>0.7345204405577594</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8124853866740566</v>
+        <v>0.8117391751210692</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>300</v>
@@ -5614,19 +5614,19 @@
         <v>346783</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>326474</v>
+        <v>323856</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>368829</v>
+        <v>366893</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.697965539370986</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6570889877819945</v>
+        <v>0.651819044704777</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7423357181284</v>
+        <v>0.7384399569336069</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>628</v>
@@ -5635,19 +5635,19 @@
         <v>718116</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>687781</v>
+        <v>688853</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>745449</v>
+        <v>744886</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7367057377528454</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7055848186049978</v>
+        <v>0.7066844611512295</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7647462617696693</v>
+        <v>0.7641682343243426</v>
       </c>
     </row>
     <row r="18">
@@ -5739,19 +5739,19 @@
         <v>140214</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>121707</v>
+        <v>122810</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>158997</v>
+        <v>157925</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4193875716016841</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3640332354925387</v>
+        <v>0.3673329574958195</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4755698340045839</v>
+        <v>0.4723615413509191</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>160</v>
@@ -5760,19 +5760,19 @@
         <v>170967</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>151056</v>
+        <v>151678</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>191093</v>
+        <v>191074</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4525783016519696</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3998695063443286</v>
+        <v>0.4015184429355003</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5058566647983869</v>
+        <v>0.5058051301162227</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>296</v>
@@ -5781,19 +5781,19 @@
         <v>311181</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>284996</v>
+        <v>282454</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>339889</v>
+        <v>336869</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4369951231857599</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4002231406805219</v>
+        <v>0.3966533844055107</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4773098373675459</v>
+        <v>0.4730697338828707</v>
       </c>
     </row>
     <row r="20">
@@ -5810,19 +5810,19 @@
         <v>194116</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>175333</v>
+        <v>176405</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>212623</v>
+        <v>211520</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5806124283983159</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.524430165995416</v>
+        <v>0.527638458649081</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6359667645074615</v>
+        <v>0.6326670425041805</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>194</v>
@@ -5831,19 +5831,19 @@
         <v>206795</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>186669</v>
+        <v>186688</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>226706</v>
+        <v>226084</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5474216983480304</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4941433352016131</v>
+        <v>0.4941948698837773</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6001304936556714</v>
+        <v>0.5984815570644997</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>383</v>
@@ -5852,19 +5852,19 @@
         <v>400911</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>372203</v>
+        <v>375223</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>427096</v>
+        <v>429638</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5630048768142402</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5226901626324537</v>
+        <v>0.5269302661171292</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.599776859319478</v>
+        <v>0.6033466155944892</v>
       </c>
     </row>
     <row r="21">
@@ -5956,19 +5956,19 @@
         <v>141009</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>126115</v>
+        <v>126280</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>154658</v>
+        <v>154845</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5486772762202478</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.49072293911328</v>
+        <v>0.4913646151536425</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.601785841794782</v>
+        <v>0.6025159960417076</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>170</v>
@@ -5977,19 +5977,19 @@
         <v>229021</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>204671</v>
+        <v>204974</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>250198</v>
+        <v>249788</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5723098338758306</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5114608380110215</v>
+        <v>0.5122192108996436</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6252319649937214</v>
+        <v>0.6242067297000262</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>335</v>
@@ -5998,19 +5998,19 @@
         <v>370030</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>342271</v>
+        <v>342332</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>394952</v>
+        <v>395891</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5630678602634041</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5208286695852805</v>
+        <v>0.5209202465266336</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.600992464175314</v>
+        <v>0.6024203013440255</v>
       </c>
     </row>
     <row r="23">
@@ -6027,19 +6027,19 @@
         <v>115989</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>102340</v>
+        <v>102153</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>130883</v>
+        <v>130718</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4513227237797522</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3982141582052177</v>
+        <v>0.3974840039582919</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5092770608867198</v>
+        <v>0.5086353848463573</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>131</v>
@@ -6048,19 +6048,19 @@
         <v>171148</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>149971</v>
+        <v>150381</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>195498</v>
+        <v>195195</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4276901661241694</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3747680350062784</v>
+        <v>0.3757932702999738</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4885391619889783</v>
+        <v>0.4877807891003564</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>268</v>
@@ -6069,19 +6069,19 @@
         <v>287137</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>262215</v>
+        <v>261276</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>314896</v>
+        <v>314835</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.436932139736596</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3990075358246859</v>
+        <v>0.3975796986559745</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4791713304147194</v>
+        <v>0.4790797534733663</v>
       </c>
     </row>
     <row r="24">
@@ -6173,19 +6173,19 @@
         <v>503588</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>465253</v>
+        <v>466414</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>549938</v>
+        <v>548519</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1483606250497135</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1370669327622598</v>
+        <v>0.1374089668870654</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1620158065290756</v>
+        <v>0.1615976509356556</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>537</v>
@@ -6194,19 +6194,19 @@
         <v>629524</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>580170</v>
+        <v>584537</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>683603</v>
+        <v>679346</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1776037240304301</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.163679838705307</v>
+        <v>0.1649119799062983</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1928606882783192</v>
+        <v>0.1916597855280309</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1038</v>
@@ -6215,19 +6215,19 @@
         <v>1133112</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1072922</v>
+        <v>1070711</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1197681</v>
+        <v>1192909</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1632986565693131</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1546243970722453</v>
+        <v>0.1543057590977272</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1726040855302522</v>
+        <v>0.1719163951746582</v>
       </c>
     </row>
     <row r="26">
@@ -6244,19 +6244,19 @@
         <v>2890762</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2844412</v>
+        <v>2845831</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2929097</v>
+        <v>2927936</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8516393749502865</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.837984193470924</v>
+        <v>0.8384023490643441</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8629330672377402</v>
+        <v>0.8625910331129346</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2801</v>
@@ -6265,19 +6265,19 @@
         <v>2915018</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2860939</v>
+        <v>2865196</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2964372</v>
+        <v>2960005</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8223962759695699</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.807139311721681</v>
+        <v>0.8083402144719691</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8363201612946931</v>
+        <v>0.8350880200937016</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5531</v>
@@ -6286,19 +6286,19 @@
         <v>5805780</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5741211</v>
+        <v>5745983</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5865970</v>
+        <v>5868181</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8367013434306869</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8273959144697478</v>
+        <v>0.8280836048253416</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8453756029277547</v>
+        <v>0.8456942409022727</v>
       </c>
     </row>
     <row r="27">
@@ -6636,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15656</v>
+        <v>14590</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006954294046103704</v>
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03839307467036599</v>
+        <v>0.0357782914973817</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12398</v>
+        <v>12285</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00560582771253704</v>
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03420054165128938</v>
+        <v>0.03388900566679612</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -6678,16 +6678,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18614</v>
+        <v>16546</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.006319694543464989</v>
+        <v>0.006319694543464987</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02416486663860164</v>
+        <v>0.02148003809049582</v>
       </c>
     </row>
     <row r="5">
@@ -6704,7 +6704,7 @@
         <v>404957</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>392137</v>
+        <v>393203</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>407793</v>
@@ -6713,7 +6713,7 @@
         <v>0.9930457059538964</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9616069253296335</v>
+        <v>0.9642217085026179</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6725,7 +6725,7 @@
         <v>360480</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>350114</v>
+        <v>350227</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
@@ -6734,7 +6734,7 @@
         <v>0.994394172287463</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9657994583487106</v>
+        <v>0.9661109943332037</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6746,16 +6746,16 @@
         <v>765437</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>751691</v>
+        <v>753759</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>770305</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9936803054565351</v>
+        <v>0.9936803054565349</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9758351333613983</v>
+        <v>0.9785199619095041</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7506</v>
+        <v>6342</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00446653675440978</v>
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01573952780658924</v>
+        <v>0.01329955207671745</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -6871,19 +6871,19 @@
         <v>4557</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1591</v>
+        <v>1657</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10709</v>
+        <v>10580</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.009095132525879731</v>
+        <v>0.009095132525879729</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003175416574900267</v>
+        <v>0.003305974376124473</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02137241046354078</v>
+        <v>0.02111379849596525</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -6892,19 +6892,19 @@
         <v>6687</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2738</v>
+        <v>2625</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12723</v>
+        <v>12990</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.006838085078763946</v>
+        <v>0.006838085078763945</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002799397208195934</v>
+        <v>0.00268377532586315</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01300933891606682</v>
+        <v>0.01328252692006875</v>
       </c>
     </row>
     <row r="8">
@@ -6921,16 +6921,16 @@
         <v>474760</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>469384</v>
+        <v>470548</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>476890</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9955334632455901</v>
+        <v>0.9955334632455902</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9842604721934107</v>
+        <v>0.9867004479232822</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -6942,19 +6942,19 @@
         <v>496526</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>490374</v>
+        <v>490503</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>499492</v>
+        <v>499426</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9909048674741202</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9786275895364589</v>
+        <v>0.9788862015040347</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9968245834250996</v>
+        <v>0.9966940256238752</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>755</v>
@@ -6963,19 +6963,19 @@
         <v>971286</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>965250</v>
+        <v>964983</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>975235</v>
+        <v>975348</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9931619149212361</v>
+        <v>0.993161914921236</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9869906610839332</v>
+        <v>0.9867174730799313</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.997200602791804</v>
+        <v>0.9973162246741368</v>
       </c>
     </row>
     <row r="9">
@@ -7067,19 +7067,19 @@
         <v>22385</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13846</v>
+        <v>13863</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34905</v>
+        <v>33004</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03605569421150606</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02230171067256391</v>
+        <v>0.02233000998342136</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05622227592963447</v>
+        <v>0.05316027859753924</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -7088,19 +7088,19 @@
         <v>12575</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8259</v>
+        <v>8088</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20124</v>
+        <v>19380</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02021260753753744</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01327570776463458</v>
+        <v>0.01300050580486866</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03234575431915215</v>
+        <v>0.0311501268158869</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -7109,19 +7109,19 @@
         <v>34960</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24913</v>
+        <v>24560</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47039</v>
+        <v>47452</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02812585043806692</v>
+        <v>0.02812585043806691</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02004301576483529</v>
+        <v>0.01975875195250438</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03784368153482313</v>
+        <v>0.03817597556280419</v>
       </c>
     </row>
     <row r="11">
@@ -7138,19 +7138,19 @@
         <v>598452</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>585932</v>
+        <v>587833</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>606991</v>
+        <v>606974</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.963944305788494</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9437777240703658</v>
+        <v>0.9468397214024609</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.977698289327436</v>
+        <v>0.9776699900165787</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>827</v>
@@ -7159,19 +7159,19 @@
         <v>609564</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>602015</v>
+        <v>602759</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>613880</v>
+        <v>614051</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9797873924624626</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9676542456808479</v>
+        <v>0.9688498731841132</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9867242922353654</v>
+        <v>0.9869994941951311</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1354</v>
@@ -7180,19 +7180,19 @@
         <v>1208016</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1195937</v>
+        <v>1195524</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1218063</v>
+        <v>1218416</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9718741495619332</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9621563184651768</v>
+        <v>0.9618240244371956</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9799569842351649</v>
+        <v>0.9802412480474957</v>
       </c>
     </row>
     <row r="12">
@@ -7284,19 +7284,19 @@
         <v>98393</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80853</v>
+        <v>81784</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>118916</v>
+        <v>119721</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1404376619672043</v>
+        <v>0.1404376619672042</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1154023837453445</v>
+        <v>0.1167310637833299</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1697309171542731</v>
+        <v>0.1708794120482922</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>136</v>
@@ -7305,19 +7305,19 @@
         <v>89723</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>77039</v>
+        <v>75563</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>104231</v>
+        <v>103796</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1217599702928227</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.104546247979359</v>
+        <v>0.1025430801393556</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1414473624303359</v>
+        <v>0.1408575553819437</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>233</v>
@@ -7326,19 +7326,19 @@
         <v>188116</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>163088</v>
+        <v>165041</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>209919</v>
+        <v>212769</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1308631905428589</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1134520067468602</v>
+        <v>0.1148110386488891</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1460300853080013</v>
+        <v>0.1480131162914567</v>
       </c>
     </row>
     <row r="14">
@@ -7355,19 +7355,19 @@
         <v>602224</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>581701</v>
+        <v>580896</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>619764</v>
+        <v>618833</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8595623380327959</v>
+        <v>0.8595623380327956</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8302690828457268</v>
+        <v>0.829120587951708</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8845976162546555</v>
+        <v>0.88326893621667</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1005</v>
@@ -7376,19 +7376,19 @@
         <v>647163</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>632655</v>
+        <v>633090</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>659847</v>
+        <v>661323</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8782400297071774</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8585526375696638</v>
+        <v>0.8591424446180563</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8954537520206408</v>
+        <v>0.8974569198606445</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1573</v>
@@ -7397,19 +7397,19 @@
         <v>1249388</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1227585</v>
+        <v>1224735</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1274416</v>
+        <v>1272463</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8691368094571409</v>
+        <v>0.8691368094571411</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8539699146919986</v>
+        <v>0.8519868837085434</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8865479932531399</v>
+        <v>0.8851889613511108</v>
       </c>
     </row>
     <row r="15">
@@ -7501,19 +7501,19 @@
         <v>168719</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>150015</v>
+        <v>146027</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>191427</v>
+        <v>188674</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2773353586766512</v>
+        <v>0.2773353586766511</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2465891228802269</v>
+        <v>0.2400335440335786</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3146613432643912</v>
+        <v>0.3101352387002091</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>261</v>
@@ -7522,19 +7522,19 @@
         <v>156242</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>139661</v>
+        <v>139633</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>172956</v>
+        <v>172875</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2572103889240161</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2299145106078377</v>
+        <v>0.2298687605667443</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2847249031532546</v>
+        <v>0.2845918876479679</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>453</v>
@@ -7543,19 +7543,19 @@
         <v>324961</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>298246</v>
+        <v>297794</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>351853</v>
+        <v>352091</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2672804150051521</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2453068973968651</v>
+        <v>0.2449356108724307</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2893983287175705</v>
+        <v>0.2895942382331163</v>
       </c>
     </row>
     <row r="17">
@@ -7572,19 +7572,19 @@
         <v>439640</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>416932</v>
+        <v>419685</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>458344</v>
+        <v>462332</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7226646413233491</v>
+        <v>0.7226646413233488</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6853386567356087</v>
+        <v>0.6898647612997909</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7534108771197731</v>
+        <v>0.7599664559664214</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>739</v>
@@ -7593,19 +7593,19 @@
         <v>451206</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>434492</v>
+        <v>434573</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>467787</v>
+        <v>467815</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7427896110759838</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7152750968467453</v>
+        <v>0.7154081123520323</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7700854893921623</v>
+        <v>0.7701312394332557</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1209</v>
@@ -7614,19 +7614,19 @@
         <v>890846</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>863954</v>
+        <v>863716</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>917561</v>
+        <v>918013</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7327195849948479</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7106016712824292</v>
+        <v>0.7104057617668836</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7546931026031349</v>
+        <v>0.7550643891275693</v>
       </c>
     </row>
     <row r="18">
@@ -7718,19 +7718,19 @@
         <v>190262</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>174216</v>
+        <v>174601</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>207486</v>
+        <v>207723</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4684442759106963</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4289357982693182</v>
+        <v>0.4298852054067648</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5108516198434254</v>
+        <v>0.5114338453458024</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>382</v>
@@ -7739,19 +7739,19 @@
         <v>202412</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>188048</v>
+        <v>187209</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>216946</v>
+        <v>217341</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4609012784988768</v>
+        <v>0.4609012784988767</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4281941768855312</v>
+        <v>0.4262832878000571</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4939957189867798</v>
+        <v>0.4948958765685308</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>656</v>
@@ -7760,19 +7760,19 @@
         <v>392675</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>370218</v>
+        <v>371733</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>415231</v>
+        <v>416467</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4645255062492571</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4379598723088151</v>
+        <v>0.4397520325989599</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4912087083808362</v>
+        <v>0.4926715154165888</v>
       </c>
     </row>
     <row r="20">
@@ -7789,19 +7789,19 @@
         <v>215896</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>198672</v>
+        <v>198435</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>231942</v>
+        <v>231557</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5315557240893036</v>
+        <v>0.5315557240893037</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4891483801565745</v>
+        <v>0.4885661546541976</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5710642017306818</v>
+        <v>0.5701147945932349</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>445</v>
@@ -7810,19 +7810,19 @@
         <v>236754</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>222220</v>
+        <v>221825</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>251118</v>
+        <v>251957</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5390987215011233</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5060042810132204</v>
+        <v>0.5051041234314698</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5718058231144687</v>
+        <v>0.5737167121999429</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>740</v>
@@ -7831,19 +7831,19 @@
         <v>452649</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>430093</v>
+        <v>428857</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>475106</v>
+        <v>473591</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.535474493750743</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.508791291619164</v>
+        <v>0.5073284845834114</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5620401276911851</v>
+        <v>0.5602479674010402</v>
       </c>
     </row>
     <row r="21">
@@ -7935,19 +7935,19 @@
         <v>178354</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>163656</v>
+        <v>164157</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>193232</v>
+        <v>193699</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5749696731064891</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5275842699221933</v>
+        <v>0.5292019876570873</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6229299735047163</v>
+        <v>0.6244371655934308</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>584</v>
@@ -7956,19 +7956,19 @@
         <v>298680</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>281506</v>
+        <v>283153</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>313676</v>
+        <v>313444</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6445272765594295</v>
+        <v>0.6445272765594297</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6074663162380765</v>
+        <v>0.6110207804221999</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6768872028508492</v>
+        <v>0.6763859488687511</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>858</v>
@@ -7977,19 +7977,19 @@
         <v>477035</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>455939</v>
+        <v>454780</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>498314</v>
+        <v>498073</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6166363406478507</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5893666420286694</v>
+        <v>0.5878687762400417</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6441423937281562</v>
+        <v>0.6438308699970279</v>
       </c>
     </row>
     <row r="23">
@@ -8006,19 +8006,19 @@
         <v>131844</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>116966</v>
+        <v>116499</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>146542</v>
+        <v>146041</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4250303268935107</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3770700264952832</v>
+        <v>0.3755628344065692</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4724157300778061</v>
+        <v>0.4707980123429125</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>295</v>
@@ -8027,19 +8027,19 @@
         <v>164730</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>149734</v>
+        <v>149966</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>181904</v>
+        <v>180257</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3554727234405703</v>
+        <v>0.3554727234405704</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3231127971491505</v>
+        <v>0.3236140511312487</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3925336837619231</v>
+        <v>0.3889792195778001</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>479</v>
@@ -8048,19 +8048,19 @@
         <v>296573</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>275294</v>
+        <v>275535</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>317669</v>
+        <v>318828</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3833636593521493</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.355857606271844</v>
+        <v>0.3561691300029721</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4106333579713305</v>
+        <v>0.412131223759958</v>
       </c>
     </row>
     <row r="24">
@@ -8152,19 +8152,19 @@
         <v>663080</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>617980</v>
+        <v>622317</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>707135</v>
+        <v>709888</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.187796010631028</v>
+        <v>0.1877960106310279</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1750227934358431</v>
+        <v>0.1762513565262139</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2002732370917117</v>
+        <v>0.2010529655499251</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1388</v>
@@ -8173,19 +8173,19 @@
         <v>766222</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>726167</v>
+        <v>725735</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>801713</v>
+        <v>804487</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2052759760340954</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1945448447457685</v>
+        <v>0.1944291555416998</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2147840256747564</v>
+        <v>0.21552720684233</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2247</v>
@@ -8194,19 +8194,19 @@
         <v>1429302</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1370175</v>
+        <v>1372679</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1486465</v>
+        <v>1487606</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1967788046879843</v>
+        <v>0.1967788046879842</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1886385343941576</v>
+        <v>0.1889832158006785</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2046487360578197</v>
+        <v>0.2048057457887411</v>
       </c>
     </row>
     <row r="26">
@@ -8223,19 +8223,19 @@
         <v>2867772</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2823717</v>
+        <v>2820964</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2912872</v>
+        <v>2908535</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8122039893689721</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7997267629082884</v>
+        <v>0.7989470344500749</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8249772065641569</v>
+        <v>0.8237486434737857</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3972</v>
@@ -8244,19 +8244,19 @@
         <v>2966423</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2930932</v>
+        <v>2928158</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3006478</v>
+        <v>3006910</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7947240239659045</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7852159743252437</v>
+        <v>0.7844727931576699</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8054551552542318</v>
+        <v>0.8055708444583004</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6487</v>
@@ -8265,19 +8265,19 @@
         <v>5834195</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5777032</v>
+        <v>5775891</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5893322</v>
+        <v>5890818</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8032211953120159</v>
+        <v>0.8032211953120157</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7953512639421804</v>
+        <v>0.7951942542112589</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8113614656058422</v>
+        <v>0.8110167841993212</v>
       </c>
     </row>
     <row r="27">
